--- a/user_data/user_data.xlsx
+++ b/user_data/user_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\irctc_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_Progs\irctc_projecct_robot\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D00C9D6-4E9B-43A3-996D-535AB3A7EF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97794A1-D73E-4AC0-85C3-6F0DA69B3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,16 +360,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.921875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -374,7 +381,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
